--- a/biology/Microbiologie/Neonyctotherus/Neonyctotherus.xlsx
+++ b/biology/Microbiologie/Neonyctotherus/Neonyctotherus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Neonyctotheridae
 Neonyctotherus, unique représentant de la famille des Neonyctotheridae, est un genre de Ciliés de l’ordre des Clevelandellida.
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de Neonyctotherus est dérivé du grec ancien νέος / néos, « nouveau », et du suffixe -nyctotherus, en référence au genre Nyctotherus, nom donné notamment par Ehrenberg en 1838 et Leidy en 1849.
-En effet, le plus ancien Nyctotherus connu est un parasite de myriapodes que Leidy décrit en 1849, chez l'iule Iulus marginatus, sous le taxon Nyctotherus velox[1].
+En effet, le plus ancien Nyctotherus connu est un parasite de myriapodes que Leidy décrit en 1849, chez l'iule Iulus marginatus, sous le taxon Nyctotherus velox.
 Nyctotherus est formé du préfixe nycto- nuit, et du suffixe -ther, « bête sauvage, chasser, rechercher ».
 </t>
         </is>
@@ -545,10 +559,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Neonyctotherus est un cilié présentant, sur la face gauche, un bourrelet ventral sous lequel s'ouvrent la gouttière péristomienne et l'orifice infundibulaire. L'appareil buccal est situé bien en retrait par rapport au bord ventral de la cellule.
-Le cinétome comporte deux systèmes sécants[note 1],[2] : un système préoral et un système apical droit (comme dans le genre Nyctotherus)[3].
+Le cinétome comporte deux systèmes sécants[note 1], : un système préoral et un système apical droit (comme dans le genre Nyctotherus).
 </t>
         </is>
       </c>
@@ -577,11 +593,13 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Selon Félix-Marie Affa'a (d) : 
-« Neonyctotherus dragescoi n'a été observée jusqu'à présent (1983), que dans les têtards de deux Astylosterninae : Nyctibates corrugatus et Astylosternus batesi. Elle est absente de la faune endocommensale de tous les autres têtards examinés et particulièrement de ceux de Leptodactylodon ventrimarmoratus, autre Astylosterninae[3]. »
+« Neonyctotherus dragescoi n'a été observée jusqu'à présent (1983), que dans les têtards de deux Astylosterninae : Nyctibates corrugatus et Astylosternus batesi. Elle est absente de la faune endocommensale de tous les autres têtards examinés et particulièrement de ceux de Leptodactylodon ventrimarmoratus, autre Astylosterninae. »
 </t>
         </is>
       </c>
@@ -610,11 +628,13 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon The Taxonomicon  (13 novembre 2023)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon The Taxonomicon  (13 novembre 2023) :
 Neonyctotherus dragescoi Affa'a, 1983
-D'après l'Index to Organism Names (13 novembre 2023)[5] :
+D'après l'Index to Organism Names (13 novembre 2023) :
 Neonyctotherus dragescoi Affa'a, 1983
 Neonyctotherus reticulatus Affa'a, 1983</t>
         </is>
@@ -644,9 +664,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a été décrit en 1983 par le protozoologiste camerounais Félix-Marie Affa'a (d) (1947-)[3], qui a par la suite proposé la famille monogénérique des Neonyctotheridae en 1987[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été décrit en 1983 par le protozoologiste camerounais Félix-Marie Affa'a (d) (1947-), qui a par la suite proposé la famille monogénérique des Neonyctotheridae en 1987.
 </t>
         </is>
       </c>
